--- a/Data/Alarmlist/Alarmlist 2.xlsx
+++ b/Data/Alarmlist/Alarmlist 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trond\Desktop\Nexus Config Tool V1.0\Data\Alarmlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\NexusConfigTool\Data\Alarmlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECACAA-F69B-456B-B114-37C4A8E033DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CCB78B-E55F-4384-B483-C3A3D4784C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4A9811CC-069D-41C8-9C60-24178232C789}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A9811CC-069D-41C8-9C60-24178232C789}"/>
   </bookViews>
   <sheets>
     <sheet name="AlarmList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="360">
   <si>
     <t>Barge BLACKOUT</t>
   </si>
@@ -1098,6 +1098,24 @@
   </si>
   <si>
     <t>Sheet type</t>
+  </si>
+  <si>
+    <t>Genset2.Engine.OverloadAlarm</t>
+  </si>
+  <si>
+    <t>Genset2.Engine.LoadWarning</t>
+  </si>
+  <si>
+    <t>Genset2.Engine.Overload</t>
+  </si>
+  <si>
+    <t>Genset2.Engine.HighLoad</t>
+  </si>
+  <si>
+    <t>Genset2 engine high load warning</t>
+  </si>
+  <si>
+    <t>Genset2 engine overload</t>
   </si>
 </sst>
 </file>
@@ -1225,6 +1243,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1234,11 +1255,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1635,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDCA841-F24C-4FB7-A0AE-0E8EE22FBF68}">
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q160" sqref="F2:Q160"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,46 +1674,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>346</v>
       </c>
       <c r="L2" s="11" t="s">
@@ -1709,17 +1727,17 @@
         <v>343</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="6" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="11"/>
       <c r="M3" s="4" t="s">
         <v>341</v>
@@ -1733,7 +1751,7 @@
       <c r="P3" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
@@ -1796,29 +1814,27 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1826,10 +1842,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
@@ -1842,13 +1858,11 @@
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1856,14 +1870,14 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -1873,12 +1887,12 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1886,14 +1900,14 @@
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>7</v>
@@ -1903,12 +1917,12 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="1" t="s">
-        <v>325</v>
+      <c r="Q9" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1919,14 +1933,14 @@
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>7</v>
@@ -1936,12 +1950,12 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="1" t="s">
-        <v>322</v>
+      <c r="Q10" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1949,7 +1963,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>299</v>
@@ -1966,12 +1980,12 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1979,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>299</v>
@@ -1996,12 +2010,12 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2009,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>299</v>
@@ -2026,12 +2040,12 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2039,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>299</v>
@@ -2056,12 +2070,12 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2069,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>299</v>
@@ -2086,12 +2100,12 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2099,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>299</v>
@@ -2116,12 +2130,12 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.25">
@@ -2129,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>299</v>
@@ -2146,12 +2160,12 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.25">
@@ -2159,7 +2173,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>299</v>
@@ -2176,12 +2190,12 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.25">
@@ -2189,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>299</v>
@@ -2206,12 +2220,12 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.25">
@@ -2219,14 +2233,14 @@
         <v>6</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>7</v>
@@ -2236,12 +2250,12 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.25">
@@ -2249,14 +2263,14 @@
         <v>6</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>3</v>
+        <v>302</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>7</v>
@@ -2266,12 +2280,12 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.25">
@@ -2279,29 +2293,29 @@
         <v>6</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.25">
@@ -2309,29 +2323,29 @@
         <v>6</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.25">
@@ -2339,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>267</v>
@@ -2356,12 +2370,12 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.25">
@@ -2369,14 +2383,14 @@
         <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>2</v>
@@ -2386,12 +2400,12 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.25">
@@ -2399,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>267</v>
@@ -2416,12 +2430,12 @@
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.25">
@@ -2429,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>267</v>
@@ -2446,12 +2460,12 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.25">
@@ -2459,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>267</v>
@@ -2476,12 +2490,12 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.25">
@@ -2489,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>267</v>
@@ -2506,12 +2520,12 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.25">
@@ -2519,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>267</v>
@@ -2536,12 +2550,12 @@
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.25">
@@ -2549,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>267</v>
@@ -2566,12 +2580,12 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.25">
@@ -2579,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>267</v>
@@ -2596,12 +2610,12 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.25">
@@ -2609,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>267</v>
@@ -2626,12 +2640,12 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.25">
@@ -2639,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>267</v>
@@ -2656,12 +2670,12 @@
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.25">
@@ -2669,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>267</v>
@@ -2686,12 +2700,12 @@
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.25">
@@ -2699,14 +2713,14 @@
         <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>2</v>
@@ -2716,12 +2730,12 @@
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="6:17" x14ac:dyDescent="0.25">
@@ -2729,14 +2743,14 @@
         <v>6</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>2</v>
@@ -2746,12 +2760,12 @@
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
@@ -2759,14 +2773,14 @@
         <v>6</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>2</v>
@@ -2776,12 +2790,12 @@
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.25">
@@ -2789,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
@@ -2806,12 +2820,12 @@
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.25">
@@ -2819,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>240</v>
@@ -2836,12 +2850,12 @@
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.25">
@@ -2849,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>240</v>
@@ -2866,12 +2880,12 @@
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="6:17" x14ac:dyDescent="0.25">
@@ -2879,7 +2893,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>240</v>
@@ -2896,12 +2910,12 @@
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="6:17" x14ac:dyDescent="0.25">
@@ -2909,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>240</v>
@@ -2926,12 +2940,12 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.25">
@@ -2939,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>240</v>
@@ -2956,12 +2970,12 @@
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="6:17" x14ac:dyDescent="0.25">
@@ -2969,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>240</v>
@@ -2986,12 +3000,12 @@
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.25">
@@ -2999,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>240</v>
@@ -3016,12 +3030,12 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="6:17" x14ac:dyDescent="0.25">
@@ -3029,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>240</v>
@@ -3046,12 +3060,12 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.25">
@@ -3059,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>240</v>
@@ -3076,12 +3090,12 @@
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="6:17" x14ac:dyDescent="0.25">
@@ -3089,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>240</v>
@@ -3106,12 +3120,12 @@
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
@@ -3119,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>240</v>
@@ -3136,12 +3150,12 @@
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
@@ -3149,10 +3163,10 @@
         <v>6</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
@@ -3166,12 +3180,12 @@
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="6:17" x14ac:dyDescent="0.25">
@@ -3179,10 +3193,10 @@
         <v>6</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
@@ -3196,12 +3210,12 @@
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
@@ -3209,10 +3223,10 @@
         <v>6</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
@@ -3231,7 +3245,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
@@ -3239,10 +3253,10 @@
         <v>6</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
@@ -3261,7 +3275,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.25">
@@ -3269,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>203</v>
@@ -3286,12 +3300,12 @@
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.25">
@@ -3299,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>203</v>
@@ -3316,12 +3330,12 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="6:17" x14ac:dyDescent="0.25">
@@ -3329,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>203</v>
@@ -3346,12 +3360,12 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
@@ -3359,7 +3373,7 @@
         <v>6</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>203</v>
@@ -3376,12 +3390,12 @@
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.25">
@@ -3389,7 +3403,7 @@
         <v>6</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>203</v>
@@ -3406,12 +3420,12 @@
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
@@ -3419,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>203</v>
@@ -3436,12 +3450,12 @@
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.25">
@@ -3449,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>203</v>
@@ -3466,12 +3480,12 @@
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
@@ -3479,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>203</v>
@@ -3496,12 +3510,12 @@
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.25">
@@ -3509,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>203</v>
@@ -3526,12 +3540,12 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
@@ -3539,7 +3553,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>203</v>
@@ -3556,12 +3570,12 @@
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
@@ -3569,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>203</v>
@@ -3586,12 +3600,12 @@
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
@@ -3599,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>203</v>
@@ -3616,12 +3630,12 @@
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="6:17" x14ac:dyDescent="0.25">
@@ -3629,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>203</v>
@@ -3646,12 +3660,12 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.25">
@@ -3659,7 +3673,7 @@
         <v>6</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>203</v>
@@ -3676,12 +3690,12 @@
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="6:17" x14ac:dyDescent="0.25">
@@ -3689,10 +3703,10 @@
         <v>6</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
@@ -3705,11 +3719,13 @@
         <v>1</v>
       </c>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>14</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
@@ -3717,14 +3733,14 @@
         <v>6</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>2</v>
@@ -3733,11 +3749,13 @@
         <v>1</v>
       </c>
       <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>15</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="6:17" x14ac:dyDescent="0.25">
@@ -3745,29 +3763,27 @@
         <v>6</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M71" s="1"/>
-      <c r="N71" s="1">
-        <v>0</v>
-      </c>
+      <c r="N71" s="1"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.25">
@@ -3775,29 +3791,27 @@
         <v>6</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M72" s="1"/>
-      <c r="N72" s="1">
-        <v>1</v>
-      </c>
+      <c r="N72" s="1"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="6:17" x14ac:dyDescent="0.25">
@@ -3805,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>164</v>
@@ -3822,12 +3836,12 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.25">
@@ -3835,7 +3849,7 @@
         <v>6</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>164</v>
@@ -3852,12 +3866,12 @@
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
@@ -3865,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>164</v>
@@ -3882,12 +3896,12 @@
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="6:17" x14ac:dyDescent="0.25">
@@ -3895,7 +3909,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>164</v>
@@ -3912,12 +3926,12 @@
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="6:17" x14ac:dyDescent="0.25">
@@ -3925,7 +3939,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>164</v>
@@ -3942,12 +3956,12 @@
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.25">
@@ -3955,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>164</v>
@@ -3972,12 +3986,12 @@
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.25">
@@ -3985,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>164</v>
@@ -4002,12 +4016,12 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.25">
@@ -4015,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>164</v>
@@ -4032,12 +4046,12 @@
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="6:17" x14ac:dyDescent="0.25">
@@ -4045,7 +4059,7 @@
         <v>6</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>164</v>
@@ -4062,12 +4076,12 @@
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="6:17" x14ac:dyDescent="0.25">
@@ -4075,7 +4089,7 @@
         <v>6</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>164</v>
@@ -4092,12 +4106,12 @@
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="6:17" x14ac:dyDescent="0.25">
@@ -4105,7 +4119,7 @@
         <v>6</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>164</v>
@@ -4122,12 +4136,12 @@
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="6:17" x14ac:dyDescent="0.25">
@@ -4135,7 +4149,7 @@
         <v>6</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>164</v>
@@ -4152,12 +4166,12 @@
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="6:17" x14ac:dyDescent="0.25">
@@ -4165,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>164</v>
@@ -4182,12 +4196,12 @@
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="6:17" x14ac:dyDescent="0.25">
@@ -4195,10 +4209,10 @@
         <v>6</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1" t="s">
@@ -4212,12 +4226,12 @@
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="6:17" x14ac:dyDescent="0.25">
@@ -4225,10 +4239,10 @@
         <v>6</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
@@ -4242,12 +4256,12 @@
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="6:17" x14ac:dyDescent="0.25">
@@ -4255,7 +4269,7 @@
         <v>6</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>131</v>
@@ -4272,12 +4286,12 @@
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.25">
@@ -4285,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>131</v>
@@ -4302,12 +4316,12 @@
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="6:17" x14ac:dyDescent="0.25">
@@ -4315,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>131</v>
@@ -4332,12 +4346,12 @@
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="6:17" x14ac:dyDescent="0.25">
@@ -4345,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>131</v>
@@ -4362,12 +4376,12 @@
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="6:17" x14ac:dyDescent="0.25">
@@ -4375,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>131</v>
@@ -4392,12 +4406,12 @@
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="6:17" x14ac:dyDescent="0.25">
@@ -4405,7 +4419,7 @@
         <v>6</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>131</v>
@@ -4422,12 +4436,12 @@
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="6:17" x14ac:dyDescent="0.25">
@@ -4435,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>131</v>
@@ -4452,12 +4466,12 @@
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="6:17" x14ac:dyDescent="0.25">
@@ -4465,7 +4479,7 @@
         <v>6</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>131</v>
@@ -4482,12 +4496,12 @@
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="6:17" x14ac:dyDescent="0.25">
@@ -4495,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>131</v>
@@ -4512,12 +4526,12 @@
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="6:17" x14ac:dyDescent="0.25">
@@ -4525,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>131</v>
@@ -4542,12 +4556,12 @@
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="6:17" x14ac:dyDescent="0.25">
@@ -4555,7 +4569,7 @@
         <v>6</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>131</v>
@@ -4572,12 +4586,12 @@
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="6:17" x14ac:dyDescent="0.25">
@@ -4585,7 +4599,7 @@
         <v>6</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>131</v>
@@ -4602,12 +4616,12 @@
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="6:17" x14ac:dyDescent="0.25">
@@ -4615,7 +4629,7 @@
         <v>6</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>131</v>
@@ -4632,12 +4646,12 @@
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="6:17" x14ac:dyDescent="0.25">
@@ -4645,7 +4659,7 @@
         <v>6</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>131</v>
@@ -4662,12 +4676,12 @@
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="6:17" x14ac:dyDescent="0.25">
@@ -4675,29 +4689,29 @@
         <v>6</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="6:17" x14ac:dyDescent="0.25">
@@ -4705,29 +4719,29 @@
         <v>6</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="6:17" x14ac:dyDescent="0.25">
@@ -4735,7 +4749,7 @@
         <v>6</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>98</v>
@@ -4752,12 +4766,12 @@
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="6:17" x14ac:dyDescent="0.25">
@@ -4765,7 +4779,7 @@
         <v>6</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>98</v>
@@ -4782,12 +4796,12 @@
       </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="6:17" x14ac:dyDescent="0.25">
@@ -4795,7 +4809,7 @@
         <v>6</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>98</v>
@@ -4812,12 +4826,12 @@
       </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="6:17" x14ac:dyDescent="0.25">
@@ -4825,7 +4839,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>98</v>
@@ -4842,12 +4856,12 @@
       </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="6:17" x14ac:dyDescent="0.25">
@@ -4855,7 +4869,7 @@
         <v>6</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>98</v>
@@ -4872,12 +4886,12 @@
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="6:17" x14ac:dyDescent="0.25">
@@ -4885,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>98</v>
@@ -4902,12 +4916,12 @@
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="6:17" x14ac:dyDescent="0.25">
@@ -4915,7 +4929,7 @@
         <v>6</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>98</v>
@@ -4932,12 +4946,12 @@
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="6:17" x14ac:dyDescent="0.25">
@@ -4945,7 +4959,7 @@
         <v>6</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>98</v>
@@ -4962,12 +4976,12 @@
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="6:17" x14ac:dyDescent="0.25">
@@ -4975,7 +4989,7 @@
         <v>6</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>98</v>
@@ -4992,12 +5006,12 @@
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="6:17" x14ac:dyDescent="0.25">
@@ -5005,7 +5019,7 @@
         <v>6</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>98</v>
@@ -5022,12 +5036,12 @@
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="6:17" x14ac:dyDescent="0.25">
@@ -5035,7 +5049,7 @@
         <v>6</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>98</v>
@@ -5052,12 +5066,12 @@
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="6:17" x14ac:dyDescent="0.25">
@@ -5065,7 +5079,7 @@
         <v>6</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>98</v>
@@ -5082,12 +5096,12 @@
       </c>
       <c r="M115" s="1"/>
       <c r="N115" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="6:17" x14ac:dyDescent="0.25">
@@ -5095,7 +5109,7 @@
         <v>6</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>98</v>
@@ -5112,12 +5126,12 @@
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="6:17" x14ac:dyDescent="0.25">
@@ -5125,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>98</v>
@@ -5142,12 +5156,12 @@
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="6:17" x14ac:dyDescent="0.25">
@@ -5155,10 +5169,10 @@
         <v>6</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="1" t="s">
@@ -5172,12 +5186,12 @@
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="6:17" x14ac:dyDescent="0.25">
@@ -5185,10 +5199,10 @@
         <v>6</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="s">
@@ -5202,12 +5216,12 @@
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="6:17" x14ac:dyDescent="0.25">
@@ -5215,7 +5229,7 @@
         <v>6</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>65</v>
@@ -5232,12 +5246,12 @@
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="6:17" x14ac:dyDescent="0.25">
@@ -5245,7 +5259,7 @@
         <v>6</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>65</v>
@@ -5262,12 +5276,12 @@
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="6:17" x14ac:dyDescent="0.25">
@@ -5275,7 +5289,7 @@
         <v>6</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>65</v>
@@ -5292,12 +5306,12 @@
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="6:17" x14ac:dyDescent="0.25">
@@ -5305,7 +5319,7 @@
         <v>6</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>65</v>
@@ -5322,12 +5336,12 @@
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="6:17" x14ac:dyDescent="0.25">
@@ -5335,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>65</v>
@@ -5352,12 +5366,12 @@
       </c>
       <c r="M124" s="1"/>
       <c r="N124" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="6:17" x14ac:dyDescent="0.25">
@@ -5365,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>65</v>
@@ -5382,12 +5396,12 @@
       </c>
       <c r="M125" s="1"/>
       <c r="N125" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="6:17" x14ac:dyDescent="0.25">
@@ -5395,7 +5409,7 @@
         <v>6</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>65</v>
@@ -5412,12 +5426,12 @@
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="6:17" x14ac:dyDescent="0.25">
@@ -5425,7 +5439,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>65</v>
@@ -5442,12 +5456,12 @@
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="128" spans="6:17" x14ac:dyDescent="0.25">
@@ -5455,7 +5469,7 @@
         <v>6</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>65</v>
@@ -5472,12 +5486,12 @@
       </c>
       <c r="M128" s="1"/>
       <c r="N128" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="6:17" x14ac:dyDescent="0.25">
@@ -5485,7 +5499,7 @@
         <v>6</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>65</v>
@@ -5502,12 +5516,12 @@
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="6:17" x14ac:dyDescent="0.25">
@@ -5515,7 +5529,7 @@
         <v>6</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>65</v>
@@ -5532,12 +5546,12 @@
       </c>
       <c r="M130" s="1"/>
       <c r="N130" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="6:17" x14ac:dyDescent="0.25">
@@ -5545,7 +5559,7 @@
         <v>6</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>65</v>
@@ -5562,12 +5576,12 @@
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="6:17" x14ac:dyDescent="0.25">
@@ -5575,7 +5589,7 @@
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>65</v>
@@ -5592,12 +5606,12 @@
       </c>
       <c r="M132" s="1"/>
       <c r="N132" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="6:17" x14ac:dyDescent="0.25">
@@ -5605,7 +5619,7 @@
         <v>6</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>65</v>
@@ -5622,12 +5636,12 @@
       </c>
       <c r="M133" s="1"/>
       <c r="N133" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="6:17" x14ac:dyDescent="0.25">
@@ -5635,10 +5649,10 @@
         <v>6</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1" t="s">
@@ -5651,11 +5665,13 @@
         <v>1</v>
       </c>
       <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
+      <c r="N134" s="1">
+        <v>14</v>
+      </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="6:17" x14ac:dyDescent="0.25">
@@ -5663,29 +5679,29 @@
         <v>6</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="136" spans="6:17" x14ac:dyDescent="0.25">
@@ -5693,29 +5709,27 @@
         <v>6</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M136" s="1"/>
-      <c r="N136" s="1">
-        <v>2</v>
-      </c>
+      <c r="N136" s="1"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="6:17" x14ac:dyDescent="0.25">
@@ -5723,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>52</v>
@@ -5740,12 +5754,12 @@
       </c>
       <c r="M137" s="1"/>
       <c r="N137" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="6:17" x14ac:dyDescent="0.25">
@@ -5753,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>52</v>
@@ -5770,12 +5784,12 @@
       </c>
       <c r="M138" s="1"/>
       <c r="N138" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="6:17" x14ac:dyDescent="0.25">
@@ -5783,7 +5797,7 @@
         <v>6</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>52</v>
@@ -5800,12 +5814,12 @@
       </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="6:17" x14ac:dyDescent="0.25">
@@ -5813,29 +5827,29 @@
         <v>6</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M140" s="1"/>
       <c r="N140" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="6:17" x14ac:dyDescent="0.25">
@@ -5843,29 +5857,29 @@
         <v>6</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L141" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="6:17" x14ac:dyDescent="0.25">
@@ -5873,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>37</v>
@@ -5890,12 +5904,12 @@
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="6:17" x14ac:dyDescent="0.25">
@@ -5903,7 +5917,7 @@
         <v>6</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>37</v>
@@ -5920,12 +5934,12 @@
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="6:17" x14ac:dyDescent="0.25">
@@ -5933,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>37</v>
@@ -5950,12 +5964,12 @@
       </c>
       <c r="M144" s="1"/>
       <c r="N144" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="6:17" x14ac:dyDescent="0.25">
@@ -5963,7 +5977,7 @@
         <v>6</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>37</v>
@@ -5980,12 +5994,12 @@
       </c>
       <c r="M145" s="1"/>
       <c r="N145" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="6:17" x14ac:dyDescent="0.25">
@@ -5993,7 +6007,7 @@
         <v>6</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>37</v>
@@ -6010,12 +6024,12 @@
       </c>
       <c r="M146" s="1"/>
       <c r="N146" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="6:17" x14ac:dyDescent="0.25">
@@ -6023,10 +6037,10 @@
         <v>6</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="1" t="s">
@@ -6039,11 +6053,13 @@
         <v>1</v>
       </c>
       <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
+      <c r="N147" s="1">
+        <v>5</v>
+      </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="6:17" x14ac:dyDescent="0.25">
@@ -6051,29 +6067,29 @@
         <v>6</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L148" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M148" s="1"/>
       <c r="N148" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="6:17" x14ac:dyDescent="0.25">
@@ -6081,29 +6097,27 @@
         <v>6</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L149" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M149" s="1"/>
-      <c r="N149" s="1">
-        <v>2</v>
-      </c>
+      <c r="N149" s="1"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="6:17" x14ac:dyDescent="0.25">
@@ -6111,7 +6125,7 @@
         <v>6</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>24</v>
@@ -6128,12 +6142,12 @@
       </c>
       <c r="M150" s="1"/>
       <c r="N150" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="6:17" x14ac:dyDescent="0.25">
@@ -6141,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>24</v>
@@ -6158,12 +6172,12 @@
       </c>
       <c r="M151" s="1"/>
       <c r="N151" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="6:17" x14ac:dyDescent="0.25">
@@ -6171,7 +6185,7 @@
         <v>6</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>24</v>
@@ -6188,12 +6202,12 @@
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="6:17" x14ac:dyDescent="0.25">
@@ -6201,29 +6215,29 @@
         <v>6</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I153" s="1"/>
       <c r="J153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M153" s="1"/>
       <c r="N153" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="6:17" x14ac:dyDescent="0.25">
@@ -6231,29 +6245,29 @@
         <v>6</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I154" s="1"/>
       <c r="J154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L154" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M154" s="1"/>
       <c r="N154" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="6:17" x14ac:dyDescent="0.25">
@@ -6261,7 +6275,7 @@
         <v>6</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>9</v>
@@ -6278,12 +6292,12 @@
       </c>
       <c r="M155" s="1"/>
       <c r="N155" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="6:17" x14ac:dyDescent="0.25">
@@ -6291,7 +6305,7 @@
         <v>6</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>9</v>
@@ -6308,12 +6322,12 @@
       </c>
       <c r="M156" s="1"/>
       <c r="N156" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="6:17" x14ac:dyDescent="0.25">
@@ -6321,7 +6335,7 @@
         <v>6</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>9</v>
@@ -6338,12 +6352,12 @@
       </c>
       <c r="M157" s="1"/>
       <c r="N157" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="6:17" x14ac:dyDescent="0.25">
@@ -6351,7 +6365,7 @@
         <v>6</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>9</v>
@@ -6368,12 +6382,12 @@
       </c>
       <c r="M158" s="1"/>
       <c r="N158" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="6:17" x14ac:dyDescent="0.25">
@@ -6381,7 +6395,7 @@
         <v>6</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>9</v>
@@ -6398,12 +6412,12 @@
       </c>
       <c r="M159" s="1"/>
       <c r="N159" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="6:17" x14ac:dyDescent="0.25">
@@ -6411,10 +6425,10 @@
         <v>6</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1" t="s">
@@ -6428,41 +6442,73 @@
       </c>
       <c r="M160" s="1"/>
       <c r="N160" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1">
+        <v>6</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F162" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-    </row>
-    <row r="162" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F163" s="5"/>
